--- a/dane_raw.xlsx
+++ b/dane_raw.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\Studia\Analityka\IV_semestr\Modelowanie statystyczne i data mining w R\Projekt_1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666518C4-C627-45E7-9D96-94B6C2062545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4710" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="4185" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -158,12 +152,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="#,##0.##########"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="#,##0.###"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.###"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -284,10 +278,10 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -299,10 +293,10 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -320,7 +314,7 @@
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -332,34 +326,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,46 +365,46 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="1" xr:uid="{E9AF68C0-4BA5-4011-8633-849A44CA8146}"/>
+    <cellStyle name="Normalny 2" xfId="1"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="180" formatCode="0.0"/>
+      <numFmt numFmtId="167" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.##########"/>
+      <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.##########"/>
+      <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.##########"/>
+      <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.##########"/>
+      <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -432,21 +426,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8CCA7CAA-C435-44F0-8251-1CBBADE459B0}" name="Tabela1" displayName="Tabela1" ref="A1:I26" totalsRowShown="0">
-  <autoFilter ref="A1:I26" xr:uid="{8CCA7CAA-C435-44F0-8251-1CBBADE459B0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:I26" totalsRowShown="0">
+  <autoFilter ref="A1:I26"/>
+  <sortState ref="A2:I26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5B88AD19-BBE3-42C0-8B6B-F76818CEF403}" name="country"/>
-    <tableColumn id="2" xr3:uid="{4D2E880C-6B7A-419C-BEE7-97EACFDB5F1B}" name="GDP_pc" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D38FA6B3-F931-41FE-97D1-6D99A323D51D}" name="high_tech_trade_pc" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{4963E3F5-4AA0-4178-95D0-3B513D2560A0}" name="r&amp;d_gdp_pct" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{404883E7-56C7-4AD5-9BAF-AA4F544C8ACB}" name="r&amp;d_bud_pct" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{44B6D9BF-09EF-43FE-B444-A094CC8E590A}" name="use_cloud_pct" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{689B4EA8-3E6D-47D6-9EDF-86AF703C441A}" name="weeknd_work_pct" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{3B0E7C66-9CED-4469-A693-0E57B2E80AB1}" name="emp_deadline_pct" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{ADED874E-B79A-4823-8051-A9A63DD6CA05}" name="working_pop_pct" dataDxfId="0"/>
+    <tableColumn id="1" name="country"/>
+    <tableColumn id="2" name="GDP_pc" dataDxfId="7"/>
+    <tableColumn id="3" name="high_tech_trade_pc" dataDxfId="6"/>
+    <tableColumn id="4" name="r&amp;d_gdp_pct" dataDxfId="5"/>
+    <tableColumn id="5" name="r&amp;d_bud_pct" dataDxfId="4"/>
+    <tableColumn id="6" name="use_cloud_pct" dataDxfId="3"/>
+    <tableColumn id="7" name="weeknd_work_pct" dataDxfId="2"/>
+    <tableColumn id="8" name="emp_deadline_pct" dataDxfId="1"/>
+    <tableColumn id="9" name="working_pop_pct" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -530,7 +524,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -707,18 +701,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3751,7 +3745,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:R32">
+  <sortState ref="A6:R32">
     <sortCondition ref="A5:A32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3759,7 +3753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECFFCE5-E5B9-4823-B36F-542BACDE00F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
